--- a/Project 2/Project 2.6/wolves_standard_stats_scouted.xlsx
+++ b/Project 2/Project 2.6/wolves_standard_stats_scouted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB55D9-77BC-AA47-BC98-7B9248B58672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE078B9C-0AF5-EC4D-8540-08F5F2D9E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="0" windowWidth="22040" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>Player</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>On-Off</t>
+  </si>
+  <si>
+    <t>Christantus Uche</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Shot on Target</t>
+  </si>
+  <si>
+    <t>Goal</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -424,6 +436,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -729,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI92"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM48" sqref="AM48"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,9 +759,11 @@
     <col min="28" max="28" width="10.83203125" customWidth="1"/>
     <col min="30" max="30" width="10.83203125" customWidth="1"/>
     <col min="31" max="31" width="12.83203125" customWidth="1"/>
+    <col min="37" max="37" width="9.83203125" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,8 +867,17 @@
       <c r="AI1" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -922,7 +948,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -990,7 +1016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1088,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1225,7 @@
       </c>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1301,8 +1327,19 @@
         <f>0.35+0.21+0.66+1.01+2.33</f>
         <v>4.5600000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <f>1.18/1.98</f>
+        <v>0.59595959595959591</v>
+      </c>
+      <c r="AM7">
+        <f>0.49/1.98</f>
+        <v>0.24747474747474749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1478,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1510,7 +1547,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1578,7 +1615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1684,7 @@
       </c>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1753,7 @@
       </c>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1926,7 +1963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1998,7 +2035,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2069,7 +2106,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2138,7 +2175,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2206,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2343,7 +2380,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2414,7 +2451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2482,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2551,7 +2588,7 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2677,8 +2714,19 @@
         <f>45/H26</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <f>0.96/2.65</f>
+        <v>0.3622641509433962</v>
+      </c>
+      <c r="AM26">
+        <f>0.44/2.65</f>
+        <v>0.16603773584905662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2749,7 +2797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2821,7 +2869,7 @@
       </c>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +2974,19 @@
         <f>0.58+0.19+0.58+1.3+2.46</f>
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <f>0.96/2.22</f>
+        <v>0.4324324324324324</v>
+      </c>
+      <c r="AM30">
+        <f>0.48/2.22</f>
+        <v>0.2162162162162162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2998,7 +3057,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3070,7 +3129,7 @@
       </c>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3142,7 +3201,7 @@
       </c>
       <c r="Z33" s="4"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3165,7 +3224,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3221,7 +3280,7 @@
       <c r="U37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -3293,7 +3352,7 @@
       </c>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3365,7 +3424,7 @@
       </c>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3437,7 +3496,7 @@
       </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -3509,7 +3568,7 @@
       </c>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -3584,7 +3643,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -3656,7 +3715,7 @@
       </c>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3728,7 +3787,7 @@
       </c>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -3833,8 +3892,19 @@
         <f>0.52+0.12+0.44+1.51+4.69</f>
         <v>7.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <f>0.96/2.1</f>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="AM45">
+        <f>0.46/2.1</f>
+        <v>0.21904761904761905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3893,7 +3963,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -4002,8 +4072,19 @@
         <f>35/H47</f>
         <v>3.5714285714285712</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <f>1.02/1.95</f>
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="AM47">
+        <f>0.41/1.95</f>
+        <v>0.21025641025641026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -4085,7 +4166,7 @@
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -4166,7 +4247,7 @@
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -4247,7 +4328,7 @@
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -4327,7 +4408,7 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -4407,18 +4488,125 @@
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="4">
+        <v>21</v>
+      </c>
+      <c r="E53" s="4">
+        <v>33</v>
+      </c>
+      <c r="F53" s="4">
+        <v>30</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2486</v>
+      </c>
+      <c r="H53" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="I53" s="4">
+        <v>4</v>
+      </c>
+      <c r="J53" s="4">
+        <v>6</v>
+      </c>
+      <c r="K53" s="4">
+        <v>10</v>
+      </c>
+      <c r="L53" s="4">
+        <v>4</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>8</v>
+      </c>
+      <c r="P53" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="R53" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="S53" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="T53" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="U53" s="4">
+        <v>43</v>
+      </c>
+      <c r="V53" s="4">
+        <v>49</v>
+      </c>
+      <c r="W53" s="4">
+        <v>148</v>
+      </c>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="AB53">
+        <f>(U53+V53+W53)/H53</f>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>4.05</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="AI53">
+        <f>1.23+0.36+0.76+0.69+3.29</f>
+        <v>6.33</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <f>0.51/1.85</f>
+        <v>0.27567567567567569</v>
+      </c>
+      <c r="AM53">
+        <f>0.14/1.85</f>
+        <v>7.567567567567568E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
@@ -4491,7 +4679,7 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
@@ -4564,7 +4752,7 @@
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
@@ -4600,7 +4788,7 @@
       <c r="AG57" s="4"/>
       <c r="AH57" s="6"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
@@ -4636,7 +4824,7 @@
       <c r="AG58" s="4"/>
       <c r="AH58" s="6"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
@@ -4672,7 +4860,7 @@
       <c r="AG59" s="4"/>
       <c r="AH59" s="6"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
@@ -4708,7 +4896,7 @@
       <c r="AG60" s="4"/>
       <c r="AH60" s="6"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
@@ -4744,7 +4932,7 @@
       <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
@@ -4780,7 +4968,7 @@
       <c r="AG62" s="4"/>
       <c r="AH62" s="6"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
@@ -4816,7 +5004,7 @@
       <c r="AG63" s="4"/>
       <c r="AH63" s="6"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
